--- a/trunk/01. Document/Vunb/Module + Function.xlsx
+++ b/trunk/01. Document/Vunb/Module + Function.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="14355" windowHeight="7995"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="14355" windowHeight="7995" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Analysis tab" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Analysis" sheetId="1" r:id="rId1"/>
+    <sheet name="Preprocessing" sheetId="2" r:id="rId2"/>
+    <sheet name="Training" sheetId="3" r:id="rId3"/>
+    <sheet name="Testing" sheetId="4" r:id="rId4"/>
+    <sheet name="Query" sheetId="5" r:id="rId5"/>
+    <sheet name="Report" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>Tùy chỉnh phân chia dữ liệu</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="58">
   <si>
     <t>Mở dữ liệu thô + phân chia tập mẫu</t>
   </si>
@@ -39,18 +39,12 @@
     <t>Phân chia theo ngẫu nhiên (dither randomize approach</t>
   </si>
   <si>
-    <t>Set mẫu thuộc loại nào (Trn, Vld, Tst, Ign)</t>
-  </si>
-  <si>
     <t>Set thuộc tính thuộc kiểu nào (catalog, date, numberic, …)</t>
   </si>
   <si>
     <t>Lấy hoặc loại bỏ mẫu bằng tay</t>
   </si>
   <si>
-    <t>Loại bỏ ngoại lai tự động (theo đặc tính kỳ dị: null, space, zero, fat number, …)</t>
-  </si>
-  <si>
     <t>Set đầu ra của mẫu ( là cột nào ?)</t>
   </si>
   <si>
@@ -58,13 +52,154 @@
   </si>
   <si>
     <t>- II</t>
+  </si>
+  <si>
+    <t>Dataset Options</t>
+  </si>
+  <si>
+    <t>Set mẫu thuộc loại nào (Trn, Vld, Tst, Ign) - tự động + manual</t>
+  </si>
+  <si>
+    <t>Loại bỏ ngoại bằng thay thế (substitute)</t>
+  </si>
+  <si>
+    <t>Loại bỏ ngoại lai tự động (remove always) (theo đặc tính kỳ dị: null, space, zero, fat number, …)</t>
+  </si>
+  <si>
+    <t>Phân chia dữ liệu</t>
+  </si>
+  <si>
+    <t>Form tùy chỉnh cách phân chia</t>
+  </si>
+  <si>
+    <t>Tiền xử lý dữ liệu</t>
+  </si>
+  <si>
+    <t>Biến đổi dữ liệu kiểu categories</t>
+  </si>
+  <si>
+    <t>Biến đổi kiểu dữ liệu nhị phân</t>
+  </si>
+  <si>
+    <t>Biến đổi kiểu dữ liệu có thứ tự (numberic)</t>
+  </si>
+  <si>
+    <t>Biến đổi kiểu dữ liệu ngày tháng</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh tập dữ liệu</t>
+  </si>
+  <si>
+    <t>Form tùy chỉnh chức năng biến đổi dữ liệu</t>
+  </si>
+  <si>
+    <t>- III</t>
+  </si>
+  <si>
+    <t>Hiển thị các thông số, chi tiết cột dữ liệu</t>
+  </si>
+  <si>
+    <t>Xuất kiến trúc mạng mặc định</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh kiến trúc mạng từ người dùng</t>
+  </si>
+  <si>
+    <t>Thiết kế mạng (Perceptron Network architecture)</t>
+  </si>
+  <si>
+    <t>Tìm kiếm mạng (ko làm)</t>
+  </si>
+  <si>
+    <t>Hiển thị thông số</t>
+  </si>
+  <si>
+    <t>Hiển thị dữ liệu đã được xử lý lên lưới</t>
+  </si>
+  <si>
+    <t>Hiển thị kiến trúc mạng</t>
+  </si>
+  <si>
+    <t>Hiển thị thông số mạng (hàm lỗi, hàm kích hoạt, …)</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh mạng (Network Properties)</t>
+  </si>
+  <si>
+    <t>Form tùy chỉnh thông số mạng</t>
+  </si>
+  <si>
+    <t>Form tùy chỉnh kiến trúc mạng</t>
+  </si>
+  <si>
+    <t>- IV</t>
+  </si>
+  <si>
+    <t>Tùy chỉnh mạng học (Training Options)</t>
+  </si>
+  <si>
+    <t>Form tùy chỉnh mạng học</t>
+  </si>
+  <si>
+    <t>Thuật toán học + các thông số</t>
+  </si>
+  <si>
+    <t>Có sử dụng kỹ thuật chống hiện tượng quá khớp</t>
+  </si>
+  <si>
+    <t>Điều kiện dừng (iteration, error)</t>
+  </si>
+  <si>
+    <t>Lịch sử quá trình luyện mạng (có nhớ hay ko?)</t>
+  </si>
+  <si>
+    <t>Vẽ đồ thị hàm lỗi</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả kiểm tra</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả Train</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả Validate</t>
+  </si>
+  <si>
+    <t>Hiển thị kết quả Test</t>
+  </si>
+  <si>
+    <t>Hiển thị tất</t>
+  </si>
+  <si>
+    <t>Kết quả mạng</t>
+  </si>
+  <si>
+    <t>Hiển thị Mean CCR</t>
+  </si>
+  <si>
+    <t>Lựa chọn mạng Test</t>
+  </si>
+  <si>
+    <t>Form chọn mạng từ các lần train cho tập mẫu hiện hành</t>
+  </si>
+  <si>
+    <t>Truy vấn bằng tay</t>
+  </si>
+  <si>
+    <t>Truy vấn từ tập dữ liệu vào</t>
+  </si>
+  <si>
+    <t>Truy vấn từ file CSV (comma delimited)</t>
+  </si>
+  <si>
+    <t>Truy vấn + hiển thị kết quả</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +228,13 @@
       <color theme="1"/>
       <name val="Times"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -127,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -135,6 +277,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -447,21 +592,21 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -469,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -477,40 +622,48 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
-      <c r="A8" s="4"/>
-      <c r="B8" s="2"/>
+      <c r="A8" s="4">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
-      <c r="A9" s="4"/>
-      <c r="B9" s="2"/>
+      <c r="A9" s="4">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4"/>
@@ -521,34 +674,40 @@
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:3" ht="15.75">
-      <c r="A12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:3" ht="15.75">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>5</v>
+      <c r="A13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="4">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="15.75">
-      <c r="A15" s="4"/>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
-      <c r="A16" s="4"/>
+      <c r="A16" s="4">
+        <v>3</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="1:1" ht="15.75">
       <c r="A17" s="4"/>
@@ -561,6 +720,9 @@
     </row>
     <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -570,21 +732,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="4">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="4">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" s="4"/>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:1" ht="15.75">
+      <c r="A21" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="4"/>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="4"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="4">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="4"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="4">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="4"/>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" spans="1:3" ht="15.75">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75">
+      <c r="A18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75">
+      <c r="A20" s="4"/>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75">
+      <c r="A21" s="4"/>
+      <c r="C21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="B22" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="4">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="4">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="4">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="4">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="4"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75">
+      <c r="A17" s="4">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75">
+      <c r="A18" s="4"/>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" spans="1:2" ht="15.75">
+      <c r="A19" s="4"/>
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" spans="1:2" ht="15.75">
+      <c r="A20" s="4"/>
+    </row>
+    <row r="21" spans="1:2" ht="15.75">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:2" ht="15.75">
+      <c r="A23" s="4"/>
+    </row>
+    <row r="24" spans="1:2" ht="15.75">
+      <c r="A24" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="50.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" s="1" customFormat="1" ht="22.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75">
+      <c r="A2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="4"/>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="15.75">
+      <c r="A5" s="4"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" ht="15.75">
+      <c r="A6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75">
+      <c r="A7" s="4">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" ht="15.75">
+      <c r="A9" s="4"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:3" ht="15.75">
+      <c r="A10" s="4"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75">
+      <c r="A13" s="4"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.75">
+      <c r="A14" s="4"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.75">
+      <c r="A15" s="4"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.75">
+      <c r="A16" s="4"/>
+    </row>
+    <row r="17" spans="1:1" ht="15.75">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" ht="15.75">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" ht="15.75">
+      <c r="A19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>

--- a/trunk/01. Document/Vunb/Module + Function.xlsx
+++ b/trunk/01. Document/Vunb/Module + Function.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="14355" windowHeight="7995" activeTab="5"/>
+    <workbookView xWindow="-210" yWindow="-45" windowWidth="14355" windowHeight="7995" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Analysis" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Phân chia theo ngẫu nhiên (dither randomize approach</t>
   </si>
   <si>
-    <t>Set thuộc tính thuộc kiểu nào (catalog, date, numberic, …)</t>
-  </si>
-  <si>
     <t>Lấy hoặc loại bỏ mẫu bằng tay</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>Truy vấn + hiển thị kết quả</t>
+  </si>
+  <si>
+    <t>Set thuộc tính thuộc kiểu nào (catalog (C), date (D), numberic (N), …)</t>
   </si>
 </sst>
 </file>
@@ -582,7 +582,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -603,7 +603,7 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>0</v>
@@ -614,7 +614,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -630,7 +630,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -638,7 +638,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>6</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -646,7 +646,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -654,7 +654,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -679,10 +679,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
@@ -698,7 +698,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -735,7 +735,7 @@
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -756,10 +756,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -767,7 +767,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -775,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -791,15 +791,15 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
@@ -815,7 +815,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
@@ -832,10 +832,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
@@ -843,7 +843,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
@@ -879,7 +879,7 @@
   <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -900,28 +900,32 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
-      <c r="A3" s="4"/>
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
       <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75">
+      <c r="A4" s="4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.75">
-      <c r="A4" s="4"/>
-      <c r="B4" s="2" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -930,34 +934,34 @@
     </row>
     <row r="7" spans="1:3" ht="15.75">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
       <c r="A8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75">
       <c r="A9" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -970,26 +974,26 @@
     </row>
     <row r="13" spans="1:3" ht="15.75">
       <c r="A13" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75">
       <c r="A14" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75">
       <c r="A15" s="4">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75">
@@ -1001,36 +1005,38 @@
     </row>
     <row r="18" spans="1:3" ht="15.75">
       <c r="A18" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="3" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="15.75">
+      <c r="A19" s="4">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="15.75">
-      <c r="A19" s="4"/>
-      <c r="B19" s="2" t="s">
+      <c r="C19" t="s">
         <v>39</v>
-      </c>
-      <c r="C19" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75">
       <c r="A20" s="4"/>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75">
       <c r="A21" s="4"/>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="B22" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1044,7 +1050,7 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1065,10 +1071,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -1076,7 +1082,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -1084,7 +1090,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75">
@@ -1092,7 +1098,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75">
@@ -1100,7 +1106,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -1108,7 +1114,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -1121,10 +1127,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75">
@@ -1132,7 +1138,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
@@ -1153,10 +1159,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75">
@@ -1164,7 +1170,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75">
@@ -1199,7 +1205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -1221,10 +1227,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75">
       <c r="A2" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75">
@@ -1232,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75">
@@ -1245,10 +1251,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75">
       <c r="A6" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75">
@@ -1256,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75">
@@ -1273,10 +1279,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75">
       <c r="A11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75">
@@ -1284,7 +1290,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75">
@@ -1319,7 +1325,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
